--- a/biology/Zoologie/Badamia_atrox/Badamia_atrox.xlsx
+++ b/biology/Zoologie/Badamia_atrox/Badamia_atrox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Badamia atrox est une espèce de lépidoptères (papillons) de la famille des Hesperiidae, de la sous-famille des Coeliadinae  et du genre Badamia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Badamia atrox a été nommé par Butler en 1877[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Badamia atrox a été nommé par Butler en 1877.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (30 octobre 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 octobre 2018) :
 sous-espèce Badamia atrox atrox ; à Lifou en Nouvelle-Calédonie
 sous-espèce Badamia atrox collenettei Evans, 1934
 sous-espèce Badamia atrox flava Evans, 1934
-sous-espèce Badamia atrox subflava Waterhouse, 1920 ; aux Fidji[1]</t>
+sous-espèce Badamia atrox subflava Waterhouse, 1920 ; aux Fidji</t>
         </is>
       </c>
     </row>
@@ -576,9 +592,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un papillon qui présente la forme caractéristique des Hesperiidae, massif avec les ailes positionnées en V et au profil triangulaire. Il est de couleur marron suffusé de jaune dans sa partie basale avec une ornementation de taches blanches aux antérieures[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon qui présente la forme caractéristique des Hesperiidae, massif avec les ailes positionnées en V et au profil triangulaire. Il est de couleur marron suffusé de jaune dans sa partie basale avec une ornementation de taches blanches aux antérieures.
 </t>
         </is>
       </c>
@@ -604,12 +622,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Badamia atrox atrox est présent en Océanie, à Lifou en Nouvelle-Calédonie et Badamia atrox subflava aux Fidji.
+</t>
         </is>
       </c>
     </row>
@@ -639,11 +660,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Badamia atrox atrox est présent en Océanie, à Lifou en Nouvelle-Calédonie et Badamia atrox subflava aux Fidji[1].
-Biotope
-Il réside dans la forêt humide.
-Protection
-Pas de statut de protection particulier.
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Badamia_atrox</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Badamia_atrox</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
